--- a/stage2_excels/GA/GA_kfold_one.xlsx
+++ b/stage2_excels/GA/GA_kfold_one.xlsx
@@ -473,7 +473,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8688417943467257</v>
+        <v>0.868841794346728</v>
       </c>
     </row>
     <row r="4">
@@ -492,14 +492,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>xyz_z_percentile_25</t>
+          <t>xyz_z_25</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8434538168494587</v>
+        <v>0.84345381684946</v>
       </c>
     </row>
     <row r="6">
@@ -512,7 +512,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8258859403017225</v>
+        <v>0.8258859403017228</v>
       </c>
     </row>
   </sheetData>

--- a/stage2_excels/GA/GA_kfold_one.xlsx
+++ b/stage2_excels/GA/GA_kfold_one.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,6 +515,2749 @@
         <v>0.8258859403017228</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>xyz_z_25</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8217745342633938</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>xyz_z_75</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8085982155768168</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>xyz_z_25</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8065018161262145</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>lab_l_median</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8023969375055231</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>hsv_s_25</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8010948201216774</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>xyz_z_mean</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.796352907357732</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>xyz_x_25</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.793806411591645</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>yuv_y_median</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7861557737680936</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>yuv_y_25</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7846602316774804</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>xyz_y_25</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.78144648116596</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>lab_l_25</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7793237088453259</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>hsv_v_mean</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7773625019906992</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>xyz_y_median</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7720444077425198</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>hsv_v_median</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.7713205598900951</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>hsv_v_25</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.7681231758992679</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>hsv_v_mean</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7651900605169126</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>xyz_x_median</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.7649487841972759</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>xyz_y_mean</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.7632760117773396</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>xyz_z_median</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.7572209770291373</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>hsv_v_median</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.7565395596913899</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>xyz_x_25</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.7531754553133954</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>xyz_x_75</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.752854905711455</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>xyz_x_25</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.7454389982287395</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>xyz_x_mean</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>3</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.7406288523679319</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>hsv_v_median</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.7388606327284217</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>yuv_y_mean</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.7377816094790633</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>xyz_x_mean</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.73535466970209</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>hsv_s_mean</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>3</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.7333307696131335</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>lab_l_mean</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>3</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.7316910911956138</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>xyz_x_75</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.7313794876839539</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>lab_l_median</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.7301513498730322</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>yuv_y_median</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.7286287862541059</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>yuv_y_25</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.7270673790132136</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>xyz_y_25</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.7268813454179227</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>lab_l_mean</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>2</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.7232809272643452</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>yuv_y_mean</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>3</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.7226076959552787</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>xyz_y_mean</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>3</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.7225536320991607</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>hsv_v_25</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>3</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.7223612946438317</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>lab_l_75</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>3</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.720425317078867</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>lab_l_25</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.7158921022623341</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>yuv_y_25</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>3</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.7147173342107573</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>hsv_v_mean</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.7142966206528754</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>lab_l_median</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>3</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.7073067447229616</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>xyz_z_75</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>3</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.7072642546632255</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>xyz_y_25</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>3</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.706886223220119</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>xyz_y_median</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.7054943157635758</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>yuv_y_75</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>3</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.7036187342820804</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>hsv_v_25</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.702544350229618</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>lab_l_25</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>3</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.7014994305403437</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>xyz_x_median</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>3</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.7000822154801254</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>xyz_y_75</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>3</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.6947982351837761</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>xyz_x_median</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.6936746597328067</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>yuv_y_median</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>3</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.6870868435477691</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>xyz_y_mean</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.6789635900661686</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>xyz_x_mean</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.676092833522796</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>yuv_y_mean</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.6755329718485767</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>xyz_z_75</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.6736115926274839</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>lab_l_75</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>2</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.6731324904096219</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>hsv_s_variance</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.6701112958309566</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>lab_l_mean</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.6659685911179576</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>yuv_y_75</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>2</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.6604459648094917</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>xyz_y_75</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>2</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.6579194872352253</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>xyz_y_median</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>3</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.6566188903725265</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>hsv_s_std_dev</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>1</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.6550365275030989</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>hsv_s_variance</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>2</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.6390794977810368</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>hsv_s_std_dev</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>2</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.6353804883683882</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>hsv_s_variance</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>3</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.6257291991709101</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>hsv_s_std_dev</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>3</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.6222190481475046</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>xyz_x_75</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.6073420010059505</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>hsv_h_75</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.5966872338943999</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>lab_l_75</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>1</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.5727043058352598</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>yuv_y_75</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>1</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.5483379845530706</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>xyz_y_75</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.5411628655512641</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>lab_l_std_dev</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.5283371752644166</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>xyz_x_std_dev</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.5160017702432624</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>yuv_y_std_dev</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.5100233947120689</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>lab_l_variance</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>1</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.4861126454500296</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>xyz_x_variance</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.4734265893705661</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>xyz_y_std_dev</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>1</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.4699287719246151</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>xyz_y_std_dev</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>2</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.4657270339668063</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>hsv_s_median</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>3</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.4639676383930275</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>yuv_y_variance</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.4629923532694023</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>yuv_y_variance</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>3</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.4600142651329546</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>yuv_y_std_dev</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>3</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.4387051060974401</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>xyz_y_variance</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>1</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.4279883704522947</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>lab_l_std_dev</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>2</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.4235448232117394</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>yuv_y_std_dev</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>2</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.4215947640234051</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>hsv_s_25</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>3</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.414446174649094</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>xyz_y_variance</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>2</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.4084220196746088</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>lab_a_variance</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>2</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.4003301516014167</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>hsv_v_75</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>2</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.3966255512482969</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>hsv_v_75</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>1</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.3959597020687437</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>yuv_y_variance</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>2</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.3902911179073624</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>xyz_x_variance</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>3</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.3831125349235437</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>lab_a_std_dev</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>2</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.3683892549121141</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>xyz_x_std_dev</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>3</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.3536991097668701</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>hsv_v_std_dev</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>2</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.3536582120745278</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>hsv_v_75</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>3</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.3461334983368994</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>xyz_y_variance</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>3</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.3363056288905365</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>xyz_x_std_dev</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>2</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.3347368726198968</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>xyz_y_std_dev</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>3</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.3179782018092669</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>hsv_h_75</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>2</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.3156093815393715</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>hsv_v_std_dev</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>1</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.2738435813333039</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>xyz_x_variance</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>2</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.258628304285694</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>hsv_v_variance</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>2</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.2581622530410829</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>hsv_v_variance</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>3</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.2420189804232264</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>hsv_s_median</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>2</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.2351804627504773</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>hsv_v_variance</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>1</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.2186818515616958</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>hsv_s_mean</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>2</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.2153818007742213</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>hsv_v_std_dev</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>3</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.2115653159232798</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>lab_l_variance</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>2</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.1700190478026689</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>hsv_s_25</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>1</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.1313900319499294</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>hsv_s_75</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>2</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.07128646040416782</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>lab_a_std_dev</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>1</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.07119186562094559</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>lab_a_75</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>1</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.009424144026892688</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>yuv_v_mean</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>1</v>
+      </c>
+      <c r="C122" t="n">
+        <v>-0.03852810801281037</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>lab_a_75</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>3</v>
+      </c>
+      <c r="C123" t="n">
+        <v>-0.08104017952348877</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>yuv_v_mean</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>2</v>
+      </c>
+      <c r="C124" t="n">
+        <v>-0.1107993592411031</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>xyz_z_std_dev</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>2</v>
+      </c>
+      <c r="C125" t="n">
+        <v>-0.1358505032864311</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>lab_b_std_dev</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>1</v>
+      </c>
+      <c r="C126" t="n">
+        <v>-0.1521999582186302</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>lab_b_variance</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
+      <c r="C127" t="n">
+        <v>-0.1536544872954405</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>hsv_s_75</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>3</v>
+      </c>
+      <c r="C128" t="n">
+        <v>-0.1792760629029758</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>lab_a_75</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>2</v>
+      </c>
+      <c r="C129" t="n">
+        <v>-0.1834437512504892</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>hsv_h_median</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>1</v>
+      </c>
+      <c r="C130" t="n">
+        <v>-0.2183187299871356</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>hsv_h_median</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>2</v>
+      </c>
+      <c r="C131" t="n">
+        <v>-0.26511024806112</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>hsv_h_median</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>3</v>
+      </c>
+      <c r="C132" t="n">
+        <v>-0.2809801502807935</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>lab_a_variance</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>1</v>
+      </c>
+      <c r="C133" t="n">
+        <v>-0.3015729136783205</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>lab_b_variance</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>2</v>
+      </c>
+      <c r="C134" t="n">
+        <v>-0.3099766082525586</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>xyz_z_variance</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>2</v>
+      </c>
+      <c r="C135" t="n">
+        <v>-0.311933299268445</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>lab_b_25</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>2</v>
+      </c>
+      <c r="C136" t="n">
+        <v>-0.3151223330299831</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>lab_b_25</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>1</v>
+      </c>
+      <c r="C137" t="n">
+        <v>-0.3151223330299831</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>yuv_u_75</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>3</v>
+      </c>
+      <c r="C138" t="n">
+        <v>-0.3151223330299831</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>yuv_u_75</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>2</v>
+      </c>
+      <c r="C139" t="n">
+        <v>-0.3151223330299831</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>yuv_u_75</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>1</v>
+      </c>
+      <c r="C140" t="n">
+        <v>-0.3151223330299831</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>lab_b_25</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>3</v>
+      </c>
+      <c r="C141" t="n">
+        <v>-0.3151223330299831</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>lab_a_25</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>1</v>
+      </c>
+      <c r="C142" t="n">
+        <v>-0.3151223330299831</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>lab_a_25</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>3</v>
+      </c>
+      <c r="C143" t="n">
+        <v>-0.3151223330299831</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>yuv_v_25</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>1</v>
+      </c>
+      <c r="C144" t="n">
+        <v>-0.3151223330299831</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>yuv_v_25</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>2</v>
+      </c>
+      <c r="C145" t="n">
+        <v>-0.3151223330299831</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>lab_a_25</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>2</v>
+      </c>
+      <c r="C146" t="n">
+        <v>-0.3151223330299831</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>yuv_v_25</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>3</v>
+      </c>
+      <c r="C147" t="n">
+        <v>-0.3151223330299831</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>yuv_v_75</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>1</v>
+      </c>
+      <c r="C148" t="n">
+        <v>-0.3183516587318844</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>hsv_h_75</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>3</v>
+      </c>
+      <c r="C149" t="n">
+        <v>-0.3205071047192035</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>yuv_v_mean</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>3</v>
+      </c>
+      <c r="C150" t="n">
+        <v>-0.3318215247708073</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>lab_b_std_dev</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>2</v>
+      </c>
+      <c r="C151" t="n">
+        <v>-0.3629606633826842</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>hsv_h_variance</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>1</v>
+      </c>
+      <c r="C152" t="n">
+        <v>-0.4934135877472663</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>lab_a_std_dev</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>3</v>
+      </c>
+      <c r="C153" t="n">
+        <v>-0.518002357293905</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>hsv_h_std_dev</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>1</v>
+      </c>
+      <c r="C154" t="n">
+        <v>-0.523102441381287</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>lab_b_variance</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>3</v>
+      </c>
+      <c r="C155" t="n">
+        <v>-0.5560727861191564</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>lab_b_std_dev</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>3</v>
+      </c>
+      <c r="C156" t="n">
+        <v>-0.5845994452225715</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>lab_b_mean</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>1</v>
+      </c>
+      <c r="C157" t="n">
+        <v>-0.6015273193916527</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>lab_b_75</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1</v>
+      </c>
+      <c r="C158" t="n">
+        <v>-0.6233250339690777</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>hsv_s_75</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>1</v>
+      </c>
+      <c r="C159" t="n">
+        <v>-0.6572631212831486</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>lab_a_median</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>1</v>
+      </c>
+      <c r="C160" t="n">
+        <v>-0.6979793656980162</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>lab_a_median</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>2</v>
+      </c>
+      <c r="C161" t="n">
+        <v>-0.6979793656980171</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>lab_a_median</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>3</v>
+      </c>
+      <c r="C162" t="n">
+        <v>-0.6979793656980176</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>yuv_u_variance</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>1</v>
+      </c>
+      <c r="C163" t="n">
+        <v>-0.7165669877820512</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>lab_b_75</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>2</v>
+      </c>
+      <c r="C164" t="n">
+        <v>-0.7247294683863574</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>yuv_u_mean</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>1</v>
+      </c>
+      <c r="C165" t="n">
+        <v>-0.7371339888473337</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>yuv_u_25</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>1</v>
+      </c>
+      <c r="C166" t="n">
+        <v>-0.742295397004116</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>yuv_u_mean</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>2</v>
+      </c>
+      <c r="C167" t="n">
+        <v>-0.7520621412118624</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>yuv_u_std_dev</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>1</v>
+      </c>
+      <c r="C168" t="n">
+        <v>-0.7880994153347125</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>yuv_v_median</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>1</v>
+      </c>
+      <c r="C169" t="n">
+        <v>-0.8127034586637606</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>yuv_v_median</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>2</v>
+      </c>
+      <c r="C170" t="n">
+        <v>-0.8143096042225343</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>yuv_v_median</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>3</v>
+      </c>
+      <c r="C171" t="n">
+        <v>-0.8173441790043718</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>yuv_v_75</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>2</v>
+      </c>
+      <c r="C172" t="n">
+        <v>-0.8451032461486928</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>lab_l_std_dev</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>3</v>
+      </c>
+      <c r="C173" t="n">
+        <v>-0.9246349370236505</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>yuv_u_mean</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>3</v>
+      </c>
+      <c r="C174" t="n">
+        <v>-0.9283866477294662</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>yuv_u_25</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>2</v>
+      </c>
+      <c r="C175" t="n">
+        <v>-0.9601637334385836</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>lab_b_mean</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>2</v>
+      </c>
+      <c r="C176" t="n">
+        <v>-0.9812654452906161</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>hsv_h_std_dev</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>2</v>
+      </c>
+      <c r="C177" t="n">
+        <v>-0.9907857091936524</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>xyz_z_std_dev</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>1</v>
+      </c>
+      <c r="C178" t="n">
+        <v>-1.004092650687907</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>yuv_u_variance</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>2</v>
+      </c>
+      <c r="C179" t="n">
+        <v>-1.056116478732124</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>lab_b_median</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>1</v>
+      </c>
+      <c r="C180" t="n">
+        <v>-1.087453227001521</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>lab_b_median</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>2</v>
+      </c>
+      <c r="C181" t="n">
+        <v>-1.102640474064283</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>lab_b_median</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>3</v>
+      </c>
+      <c r="C182" t="n">
+        <v>-1.124124260777304</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>yuv_u_std_dev</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>2</v>
+      </c>
+      <c r="C183" t="n">
+        <v>-1.163137946741589</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>yuv_u_variance</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>3</v>
+      </c>
+      <c r="C184" t="n">
+        <v>-1.220218061078842</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>yuv_u_std_dev</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>3</v>
+      </c>
+      <c r="C185" t="n">
+        <v>-1.264491129789778</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>yuv_u_25</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>3</v>
+      </c>
+      <c r="C186" t="n">
+        <v>-1.346893839124751</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>xyz_z_variance</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>1</v>
+      </c>
+      <c r="C187" t="n">
+        <v>-1.432833509175979</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>lab_b_mean</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>3</v>
+      </c>
+      <c r="C188" t="n">
+        <v>-1.546324596582422</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>yuv_v_std_dev</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>1</v>
+      </c>
+      <c r="C189" t="n">
+        <v>-1.573771096484662</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>yuv_v_75</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>3</v>
+      </c>
+      <c r="C190" t="n">
+        <v>-1.659095573236758</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>hsv_s_mean</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>1</v>
+      </c>
+      <c r="C191" t="n">
+        <v>-1.709743768655713</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>lab_l_variance</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>3</v>
+      </c>
+      <c r="C192" t="n">
+        <v>-1.758539621014265</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>hsv_h_variance</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>2</v>
+      </c>
+      <c r="C193" t="n">
+        <v>-1.904004236088803</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>lab_b_75</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>3</v>
+      </c>
+      <c r="C194" t="n">
+        <v>-1.998754065896934</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>hsv_s_median</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>1</v>
+      </c>
+      <c r="C195" t="n">
+        <v>-2.216743974491936</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>yuv_v_variance</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>1</v>
+      </c>
+      <c r="C196" t="n">
+        <v>-2.290955752741071</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>yuv_u_median</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>3</v>
+      </c>
+      <c r="C197" t="n">
+        <v>-2.387399919157965</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>yuv_u_median</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>2</v>
+      </c>
+      <c r="C198" t="n">
+        <v>-2.390465087664073</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>yuv_v_std_dev</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>2</v>
+      </c>
+      <c r="C199" t="n">
+        <v>-2.412325815630289</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>yuv_u_median</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>1</v>
+      </c>
+      <c r="C200" t="n">
+        <v>-2.413458993434436</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>lab_a_variance</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>3</v>
+      </c>
+      <c r="C201" t="n">
+        <v>-3.503813004129201</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>yuv_v_variance</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>2</v>
+      </c>
+      <c r="C202" t="n">
+        <v>-3.565892074680145</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>lab_a_mean</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>2</v>
+      </c>
+      <c r="C203" t="n">
+        <v>-3.588791699276262</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>lab_a_mean</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>1</v>
+      </c>
+      <c r="C204" t="n">
+        <v>-3.709391530343903</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>lab_a_mean</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>3</v>
+      </c>
+      <c r="C205" t="n">
+        <v>-5.184571952842935</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>hsv_h_std_dev</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>3</v>
+      </c>
+      <c r="C206" t="n">
+        <v>-9.103595394350789</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>yuv_v_std_dev</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>3</v>
+      </c>
+      <c r="C207" t="n">
+        <v>-9.246363000231998</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>yuv_v_variance</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>3</v>
+      </c>
+      <c r="C208" t="n">
+        <v>-16.21497747697716</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>hsv_h_variance</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>3</v>
+      </c>
+      <c r="C209" t="n">
+        <v>-23.4077906798052</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>xyz_z_std_dev</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>3</v>
+      </c>
+      <c r="C210" t="n">
+        <v>-30.64593449435166</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>xyz_z_variance</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>3</v>
+      </c>
+      <c r="C211" t="n">
+        <v>-67.32983309801224</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>hsv_h_mean</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>1</v>
+      </c>
+      <c r="C212" t="n">
+        <v>-417.7898574345159</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>hsv_h_mean</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>2</v>
+      </c>
+      <c r="C213" t="n">
+        <v>-423.4895970132023</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>hsv_h_mean</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>3</v>
+      </c>
+      <c r="C214" t="n">
+        <v>-455.2041517265824</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>hsv_h_25</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>2</v>
+      </c>
+      <c r="C215" t="n">
+        <v>-554.1074096433164</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>hsv_h_25</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>1</v>
+      </c>
+      <c r="C216" t="n">
+        <v>-555.9412550615382</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>hsv_h_25</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>3</v>
+      </c>
+      <c r="C217" t="n">
+        <v>-913.7493012687088</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stage2_excels/GA/GA_kfold_one.xlsx
+++ b/stage2_excels/GA/GA_kfold_one.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C217"/>
+  <dimension ref="A1:C163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,222 +557,222 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>lab_l_median</t>
+          <t>hsv_s_25</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8023969375055231</v>
+        <v>0.8010948201216774</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>hsv_s_25</t>
+          <t>xyz_z_mean</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8010948201216774</v>
+        <v>0.796352907357732</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>xyz_z_mean</t>
+          <t>xyz_x_25</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>0.796352907357732</v>
+        <v>0.793806411591645</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>xyz_x_25</t>
+          <t>yuv_y_median</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0.793806411591645</v>
+        <v>0.7861557737680936</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>yuv_y_median</t>
+          <t>yuv_y_25</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7861557737680936</v>
+        <v>0.7846602316774804</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>yuv_y_25</t>
+          <t>xyz_y_25</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7846602316774804</v>
+        <v>0.78144648116596</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>xyz_y_25</t>
+          <t>hsv_v_mean</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>0.78144648116596</v>
+        <v>0.7773625019906992</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>lab_l_25</t>
+          <t>xyz_y_median</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7793237088453259</v>
+        <v>0.7720444077425198</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>hsv_v_mean</t>
+          <t>hsv_v_median</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7773625019906992</v>
+        <v>0.7713205598900951</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>xyz_y_median</t>
+          <t>hsv_v_25</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7720444077425198</v>
+        <v>0.7681231758992679</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>hsv_v_median</t>
+          <t>hsv_v_mean</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7713205598900951</v>
+        <v>0.7651900605169126</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>hsv_v_25</t>
+          <t>xyz_x_median</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7681231758992679</v>
+        <v>0.7649487841972759</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>hsv_v_mean</t>
+          <t>xyz_y_mean</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7651900605169126</v>
+        <v>0.7632760117773396</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>xyz_x_median</t>
+          <t>xyz_z_median</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7649487841972759</v>
+        <v>0.7572209770291373</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>xyz_y_mean</t>
+          <t>hsv_v_median</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7632760117773396</v>
+        <v>0.7565395596913899</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>xyz_z_median</t>
+          <t>xyz_x_25</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7572209770291373</v>
+        <v>0.7531754553133954</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>hsv_v_median</t>
+          <t>xyz_x_75</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>3</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7565395596913899</v>
+        <v>0.752854905711455</v>
       </c>
     </row>
     <row r="27">
@@ -782,387 +782,387 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7531754553133954</v>
+        <v>0.7454389982287395</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>xyz_x_75</t>
+          <t>xyz_x_mean</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>3</v>
       </c>
       <c r="C28" t="n">
-        <v>0.752854905711455</v>
+        <v>0.7406288523679319</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>xyz_x_25</t>
+          <t>hsv_v_median</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>0.7454389982287395</v>
+        <v>0.7388606327284217</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>xyz_x_mean</t>
+          <t>yuv_y_mean</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>0.7406288523679319</v>
+        <v>0.7377816094790633</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>hsv_v_median</t>
+          <t>xyz_x_mean</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>0.7388606327284217</v>
+        <v>0.73535466970209</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>yuv_y_mean</t>
+          <t>hsv_s_mean</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7377816094790633</v>
+        <v>0.7333307696131335</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>xyz_x_mean</t>
+          <t>xyz_x_75</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>0.73535466970209</v>
+        <v>0.7313794876839539</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>hsv_s_mean</t>
+          <t>yuv_y_median</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>0.7333307696131335</v>
+        <v>0.7286287862541059</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>lab_l_mean</t>
+          <t>yuv_y_25</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>0.7316910911956138</v>
+        <v>0.7270673790132136</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>xyz_x_75</t>
+          <t>xyz_y_25</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7313794876839539</v>
+        <v>0.7268813454179227</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>lab_l_median</t>
+          <t>yuv_y_mean</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7301513498730322</v>
+        <v>0.7226076959552787</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>yuv_y_median</t>
+          <t>xyz_y_mean</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7286287862541059</v>
+        <v>0.7225536320991607</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>yuv_y_25</t>
+          <t>hsv_v_25</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>0.7270673790132136</v>
+        <v>0.7223612946438317</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>xyz_y_25</t>
+          <t>yuv_y_25</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7268813454179227</v>
+        <v>0.7147173342107573</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>lab_l_mean</t>
+          <t>hsv_v_mean</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>0.7232809272643452</v>
+        <v>0.7142966206528754</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>yuv_y_mean</t>
+          <t>xyz_z_75</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>3</v>
       </c>
       <c r="C42" t="n">
-        <v>0.7226076959552787</v>
+        <v>0.7072642546632255</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>xyz_y_mean</t>
+          <t>xyz_y_25</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>3</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7225536320991607</v>
+        <v>0.706886223220119</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>hsv_v_25</t>
+          <t>xyz_y_median</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>0.7223612946438317</v>
+        <v>0.7054943157635758</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>lab_l_75</t>
+          <t>yuv_y_75</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>3</v>
       </c>
       <c r="C45" t="n">
-        <v>0.720425317078867</v>
+        <v>0.7036187342820804</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>lab_l_25</t>
+          <t>hsv_v_25</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>0.7158921022623341</v>
+        <v>0.702544350229618</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>yuv_y_25</t>
+          <t>xyz_x_median</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>3</v>
       </c>
       <c r="C47" t="n">
-        <v>0.7147173342107573</v>
+        <v>0.7000822154801254</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>hsv_v_mean</t>
+          <t>xyz_y_75</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C48" t="n">
-        <v>0.7142966206528754</v>
+        <v>0.6947982351837761</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>lab_l_median</t>
+          <t>xyz_x_median</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>0.7073067447229616</v>
+        <v>0.6936746597328067</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>xyz_z_75</t>
+          <t>yuv_y_median</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>3</v>
       </c>
       <c r="C50" t="n">
-        <v>0.7072642546632255</v>
+        <v>0.6870868435477691</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>xyz_y_25</t>
+          <t>xyz_y_mean</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>0.706886223220119</v>
+        <v>0.6789635900661686</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>xyz_y_median</t>
+          <t>xyz_x_mean</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>0.7054943157635758</v>
+        <v>0.676092833522796</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>yuv_y_75</t>
+          <t>yuv_y_mean</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>0.7036187342820804</v>
+        <v>0.6755329718485767</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>hsv_v_25</t>
+          <t>xyz_z_75</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>0.702544350229618</v>
+        <v>0.6736115926274839</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>lab_l_25</t>
+          <t>hsv_s_variance</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>0.7014994305403437</v>
+        <v>0.6701112958309566</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>xyz_x_median</t>
+          <t>yuv_y_75</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7000822154801254</v>
+        <v>0.6604459648094917</v>
       </c>
     </row>
     <row r="57">
@@ -1172,348 +1172,348 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C57" t="n">
-        <v>0.6947982351837761</v>
+        <v>0.6579194872352253</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>xyz_x_median</t>
+          <t>xyz_y_median</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6936746597328067</v>
+        <v>0.6566188903725265</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>yuv_y_median</t>
+          <t>hsv_s_std_dev</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6870868435477691</v>
+        <v>0.6550365275030989</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>xyz_y_mean</t>
+          <t>hsv_s_variance</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C60" t="n">
-        <v>0.6789635900661686</v>
+        <v>0.6390794977810368</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>xyz_x_mean</t>
+          <t>hsv_s_std_dev</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C61" t="n">
-        <v>0.676092833522796</v>
+        <v>0.6353804883683882</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>yuv_y_mean</t>
+          <t>hsv_s_variance</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C62" t="n">
-        <v>0.6755329718485767</v>
+        <v>0.6257291991709101</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>xyz_z_75</t>
+          <t>hsv_s_std_dev</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C63" t="n">
-        <v>0.6736115926274839</v>
+        <v>0.6222190481475046</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>lab_l_75</t>
+          <t>xyz_x_75</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6731324904096219</v>
+        <v>0.6073420010059505</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>hsv_s_variance</t>
+          <t>hsv_h_75</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>0.6701112958309566</v>
+        <v>0.5966872338943999</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>lab_l_mean</t>
+          <t>yuv_y_75</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>0.6659685911179576</v>
+        <v>0.5483379845530706</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>yuv_y_75</t>
+          <t>xyz_y_75</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6604459648094917</v>
+        <v>0.5411628655512641</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>xyz_y_75</t>
+          <t>xyz_x_std_dev</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>0.6579194872352253</v>
+        <v>0.5160017702432624</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>xyz_y_median</t>
+          <t>yuv_y_std_dev</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>0.6566188903725265</v>
+        <v>0.5100233947120689</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>hsv_s_std_dev</t>
+          <t>xyz_x_variance</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6550365275030989</v>
+        <v>0.4734265893705661</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>hsv_s_variance</t>
+          <t>xyz_y_std_dev</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6390794977810368</v>
+        <v>0.4699287719246151</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>hsv_s_std_dev</t>
+          <t>xyz_y_std_dev</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>2</v>
       </c>
       <c r="C72" t="n">
-        <v>0.6353804883683882</v>
+        <v>0.4657270339668063</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>hsv_s_variance</t>
+          <t>hsv_s_median</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>3</v>
       </c>
       <c r="C73" t="n">
-        <v>0.6257291991709101</v>
+        <v>0.4639676383930275</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>hsv_s_std_dev</t>
+          <t>yuv_y_variance</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6222190481475046</v>
+        <v>0.4629923532694023</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>xyz_x_75</t>
+          <t>yuv_y_variance</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C75" t="n">
-        <v>0.6073420010059505</v>
+        <v>0.4600142651329546</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>hsv_h_75</t>
+          <t>yuv_y_std_dev</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C76" t="n">
-        <v>0.5966872338943999</v>
+        <v>0.4387051060974401</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>lab_l_75</t>
+          <t>xyz_y_variance</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>0.5727043058352598</v>
+        <v>0.4279883704522947</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>yuv_y_75</t>
+          <t>yuv_y_std_dev</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C78" t="n">
-        <v>0.5483379845530706</v>
+        <v>0.4215947640234051</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>xyz_y_75</t>
+          <t>hsv_s_25</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C79" t="n">
-        <v>0.5411628655512641</v>
+        <v>0.414446174649094</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>lab_l_std_dev</t>
+          <t>xyz_y_variance</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5283371752644166</v>
+        <v>0.4084220196746088</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>xyz_x_std_dev</t>
+          <t>hsv_v_75</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C81" t="n">
-        <v>0.5160017702432624</v>
+        <v>0.3966255512482969</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>yuv_y_std_dev</t>
+          <t>hsv_v_75</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>0.5100233947120689</v>
+        <v>0.3959597020687437</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>lab_l_variance</t>
+          <t>yuv_y_variance</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C83" t="n">
-        <v>0.4861126454500296</v>
+        <v>0.3902911179073624</v>
       </c>
     </row>
     <row r="84">
@@ -1523,1738 +1523,1036 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C84" t="n">
-        <v>0.4734265893705661</v>
+        <v>0.3831125349235437</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>xyz_y_std_dev</t>
+          <t>xyz_x_std_dev</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C85" t="n">
-        <v>0.4699287719246151</v>
+        <v>0.3536991097668701</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>xyz_y_std_dev</t>
+          <t>hsv_v_std_dev</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>2</v>
       </c>
       <c r="C86" t="n">
-        <v>0.4657270339668063</v>
+        <v>0.3536582120745278</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>hsv_s_median</t>
+          <t>hsv_v_75</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>3</v>
       </c>
       <c r="C87" t="n">
-        <v>0.4639676383930275</v>
+        <v>0.3461334983368994</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>yuv_y_variance</t>
+          <t>xyz_y_variance</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C88" t="n">
-        <v>0.4629923532694023</v>
+        <v>0.3363056288905365</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>yuv_y_variance</t>
+          <t>xyz_x_std_dev</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C89" t="n">
-        <v>0.4600142651329546</v>
+        <v>0.3347368726198968</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>yuv_y_std_dev</t>
+          <t>xyz_y_std_dev</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>3</v>
       </c>
       <c r="C90" t="n">
-        <v>0.4387051060974401</v>
+        <v>0.3179782018092669</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>xyz_y_variance</t>
+          <t>hsv_h_75</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C91" t="n">
-        <v>0.4279883704522947</v>
+        <v>0.3156093815393715</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>lab_l_std_dev</t>
+          <t>hsv_v_std_dev</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>0.4235448232117394</v>
+        <v>0.2738435813333039</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>yuv_y_std_dev</t>
+          <t>xyz_x_variance</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>2</v>
       </c>
       <c r="C93" t="n">
-        <v>0.4215947640234051</v>
+        <v>0.258628304285694</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>hsv_s_25</t>
+          <t>hsv_v_variance</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C94" t="n">
-        <v>0.414446174649094</v>
+        <v>0.2581622530410829</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>xyz_y_variance</t>
+          <t>hsv_v_variance</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C95" t="n">
-        <v>0.4084220196746088</v>
+        <v>0.2420189804232264</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>lab_a_variance</t>
+          <t>hsv_s_median</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>2</v>
       </c>
       <c r="C96" t="n">
-        <v>0.4003301516014167</v>
+        <v>0.2351804627504773</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>hsv_v_75</t>
+          <t>hsv_v_variance</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>0.3966255512482969</v>
+        <v>0.2186818515616958</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>hsv_v_75</t>
+          <t>hsv_s_mean</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C98" t="n">
-        <v>0.3959597020687437</v>
+        <v>0.2153818007742213</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>yuv_y_variance</t>
+          <t>hsv_v_std_dev</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C99" t="n">
-        <v>0.3902911179073624</v>
+        <v>0.2115653159232798</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>xyz_x_variance</t>
+          <t>hsv_s_25</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>0.3831125349235437</v>
+        <v>0.1313900319499294</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>lab_a_std_dev</t>
+          <t>hsv_s_75</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>2</v>
       </c>
       <c r="C101" t="n">
-        <v>0.3683892549121141</v>
+        <v>0.07128646040416782</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>xyz_x_std_dev</t>
+          <t>yuv_v_mean</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>0.3536991097668701</v>
+        <v>-0.03852810801281037</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>hsv_v_std_dev</t>
+          <t>yuv_v_mean</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>2</v>
       </c>
       <c r="C103" t="n">
-        <v>0.3536582120745278</v>
+        <v>-0.1107993592411031</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>hsv_v_75</t>
+          <t>xyz_z_std_dev</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C104" t="n">
-        <v>0.3461334983368994</v>
+        <v>-0.1358505032864311</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>xyz_y_variance</t>
+          <t>hsv_s_75</t>
         </is>
       </c>
       <c r="B105" t="n">
         <v>3</v>
       </c>
       <c r="C105" t="n">
-        <v>0.3363056288905365</v>
+        <v>-0.1792760629029758</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>xyz_x_std_dev</t>
+          <t>hsv_h_median</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>0.3347368726198968</v>
+        <v>-0.2183187299871356</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>xyz_y_std_dev</t>
+          <t>hsv_h_median</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C107" t="n">
-        <v>0.3179782018092669</v>
+        <v>-0.26511024806112</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>hsv_h_75</t>
+          <t>hsv_h_median</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C108" t="n">
-        <v>0.3156093815393715</v>
+        <v>-0.2809801502807935</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>hsv_v_std_dev</t>
+          <t>xyz_z_variance</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C109" t="n">
-        <v>0.2738435813333039</v>
+        <v>-0.311933299268445</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>xyz_x_variance</t>
+          <t>yuv_v_25</t>
         </is>
       </c>
       <c r="B110" t="n">
         <v>2</v>
       </c>
       <c r="C110" t="n">
-        <v>0.258628304285694</v>
+        <v>-0.3151223330299831</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>hsv_v_variance</t>
+          <t>yuv_v_25</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C111" t="n">
-        <v>0.2581622530410829</v>
+        <v>-0.3151223330299831</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>hsv_v_variance</t>
+          <t>yuv_u_75</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>0.2420189804232264</v>
+        <v>-0.3151223330299831</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>hsv_s_median</t>
+          <t>yuv_u_75</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C113" t="n">
-        <v>0.2351804627504773</v>
+        <v>-0.3151223330299831</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>hsv_v_variance</t>
+          <t>yuv_u_75</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C114" t="n">
-        <v>0.2186818515616958</v>
+        <v>-0.3151223330299831</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>hsv_s_mean</t>
+          <t>yuv_v_25</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C115" t="n">
-        <v>0.2153818007742213</v>
+        <v>-0.3151223330299831</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>hsv_v_std_dev</t>
+          <t>yuv_v_75</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>0.2115653159232798</v>
+        <v>-0.3183516587318844</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>lab_l_variance</t>
+          <t>hsv_h_75</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C117" t="n">
-        <v>0.1700190478026689</v>
+        <v>-0.3205071047192035</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>hsv_s_25</t>
+          <t>yuv_v_mean</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C118" t="n">
-        <v>0.1313900319499294</v>
+        <v>-0.3318215247708073</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>hsv_s_75</t>
+          <t>hsv_h_variance</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>0.07128646040416782</v>
+        <v>-0.4934135877472663</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>lab_a_std_dev</t>
+          <t>hsv_h_std_dev</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>0.07119186562094559</v>
+        <v>-0.523102441381287</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>lab_a_75</t>
+          <t>hsv_s_75</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>1</v>
       </c>
       <c r="C121" t="n">
-        <v>0.009424144026892688</v>
+        <v>-0.6572631212831486</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>yuv_v_mean</t>
+          <t>yuv_u_variance</t>
         </is>
       </c>
       <c r="B122" t="n">
         <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.03852810801281037</v>
+        <v>-0.7165669877820512</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>lab_a_75</t>
+          <t>yuv_u_mean</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.08104017952348877</v>
+        <v>-0.7371339888473337</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>yuv_v_mean</t>
+          <t>yuv_u_25</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>-0.1107993592411031</v>
+        <v>-0.742295397004116</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>xyz_z_std_dev</t>
+          <t>yuv_u_mean</t>
         </is>
       </c>
       <c r="B125" t="n">
         <v>2</v>
       </c>
       <c r="C125" t="n">
-        <v>-0.1358505032864311</v>
+        <v>-0.7520621412118624</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>lab_b_std_dev</t>
+          <t>yuv_u_std_dev</t>
         </is>
       </c>
       <c r="B126" t="n">
         <v>1</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.1521999582186302</v>
+        <v>-0.7880994153347125</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>lab_b_variance</t>
+          <t>yuv_v_median</t>
         </is>
       </c>
       <c r="B127" t="n">
         <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.1536544872954405</v>
+        <v>-0.8127034586637606</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>hsv_s_75</t>
+          <t>yuv_v_median</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C128" t="n">
-        <v>-0.1792760629029758</v>
+        <v>-0.8143096042225343</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>lab_a_75</t>
+          <t>yuv_v_median</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.1834437512504892</v>
+        <v>-0.8173441790043718</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>hsv_h_median</t>
+          <t>yuv_v_75</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C130" t="n">
-        <v>-0.2183187299871356</v>
+        <v>-0.8451032461486928</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>hsv_h_median</t>
+          <t>yuv_u_mean</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C131" t="n">
-        <v>-0.26511024806112</v>
+        <v>-0.9283866477294662</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>hsv_h_median</t>
+          <t>yuv_u_25</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.2809801502807935</v>
+        <v>-0.9601637334385836</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>lab_a_variance</t>
+          <t>hsv_h_std_dev</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C133" t="n">
-        <v>-0.3015729136783205</v>
+        <v>-0.9907857091936524</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>lab_b_variance</t>
+          <t>xyz_z_std_dev</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>-0.3099766082525586</v>
+        <v>-1.004092650687907</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>xyz_z_variance</t>
+          <t>yuv_u_variance</t>
         </is>
       </c>
       <c r="B135" t="n">
         <v>2</v>
       </c>
       <c r="C135" t="n">
-        <v>-0.311933299268445</v>
+        <v>-1.056116478732124</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>lab_b_25</t>
+          <t>yuv_u_std_dev</t>
         </is>
       </c>
       <c r="B136" t="n">
         <v>2</v>
       </c>
       <c r="C136" t="n">
-        <v>-0.3151223330299831</v>
+        <v>-1.163137946741589</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>lab_b_25</t>
+          <t>yuv_u_variance</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.3151223330299831</v>
+        <v>-1.220218061078842</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>yuv_u_75</t>
+          <t>yuv_u_std_dev</t>
         </is>
       </c>
       <c r="B138" t="n">
         <v>3</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.3151223330299831</v>
+        <v>-1.264491129789778</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>yuv_u_75</t>
+          <t>yuv_u_25</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C139" t="n">
-        <v>-0.3151223330299831</v>
+        <v>-1.346893839124751</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>yuv_u_75</t>
+          <t>xyz_z_variance</t>
         </is>
       </c>
       <c r="B140" t="n">
         <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.3151223330299831</v>
+        <v>-1.432833509175979</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>lab_b_25</t>
+          <t>yuv_v_std_dev</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>-0.3151223330299831</v>
+        <v>-1.573771096484662</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>lab_a_25</t>
+          <t>yuv_v_75</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C142" t="n">
-        <v>-0.3151223330299831</v>
+        <v>-1.659095573236758</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>lab_a_25</t>
+          <t>hsv_s_mean</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>-0.3151223330299831</v>
+        <v>-1.709743768655713</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>yuv_v_25</t>
+          <t>hsv_h_variance</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C144" t="n">
-        <v>-0.3151223330299831</v>
+        <v>-1.904004236088803</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>yuv_v_25</t>
+          <t>hsv_s_median</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C145" t="n">
-        <v>-0.3151223330299831</v>
+        <v>-2.216743974491936</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>lab_a_25</t>
+          <t>yuv_v_variance</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>-0.3151223330299831</v>
+        <v>-2.290955752741071</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>yuv_v_25</t>
+          <t>yuv_u_median</t>
         </is>
       </c>
       <c r="B147" t="n">
         <v>3</v>
       </c>
       <c r="C147" t="n">
-        <v>-0.3151223330299831</v>
+        <v>-2.387399919157965</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>yuv_v_75</t>
+          <t>yuv_u_median</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.3183516587318844</v>
+        <v>-2.390465087664073</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>hsv_h_75</t>
+          <t>yuv_v_std_dev</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C149" t="n">
-        <v>-0.3205071047192035</v>
+        <v>-2.412325815630289</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>yuv_v_mean</t>
+          <t>yuv_u_median</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>-0.3318215247708073</v>
+        <v>-2.413458993434436</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>lab_b_std_dev</t>
+          <t>yuv_v_variance</t>
         </is>
       </c>
       <c r="B151" t="n">
         <v>2</v>
       </c>
       <c r="C151" t="n">
-        <v>-0.3629606633826842</v>
+        <v>-3.565892074680145</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>hsv_h_variance</t>
+          <t>hsv_h_std_dev</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C152" t="n">
-        <v>-0.4934135877472663</v>
+        <v>-9.103595394350789</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>lab_a_std_dev</t>
+          <t>yuv_v_std_dev</t>
         </is>
       </c>
       <c r="B153" t="n">
         <v>3</v>
       </c>
       <c r="C153" t="n">
-        <v>-0.518002357293905</v>
+        <v>-9.246363000231998</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>hsv_h_std_dev</t>
+          <t>yuv_v_variance</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C154" t="n">
-        <v>-0.523102441381287</v>
+        <v>-16.21497747697716</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>lab_b_variance</t>
+          <t>hsv_h_variance</t>
         </is>
       </c>
       <c r="B155" t="n">
         <v>3</v>
       </c>
       <c r="C155" t="n">
-        <v>-0.5560727861191564</v>
+        <v>-23.4077906798052</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>lab_b_std_dev</t>
+          <t>xyz_z_std_dev</t>
         </is>
       </c>
       <c r="B156" t="n">
         <v>3</v>
       </c>
       <c r="C156" t="n">
-        <v>-0.5845994452225715</v>
+        <v>-30.64593449435166</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>lab_b_mean</t>
+          <t>xyz_z_variance</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C157" t="n">
-        <v>-0.6015273193916527</v>
+        <v>-67.32983309801224</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>lab_b_75</t>
+          <t>hsv_h_mean</t>
         </is>
       </c>
       <c r="B158" t="n">
         <v>1</v>
       </c>
       <c r="C158" t="n">
-        <v>-0.6233250339690777</v>
+        <v>-417.7898574345159</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>hsv_s_75</t>
+          <t>hsv_h_mean</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C159" t="n">
-        <v>-0.6572631212831486</v>
+        <v>-423.4895970132023</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>lab_a_median</t>
+          <t>hsv_h_mean</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C160" t="n">
-        <v>-0.6979793656980162</v>
+        <v>-455.2041517265824</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>lab_a_median</t>
+          <t>hsv_h_25</t>
         </is>
       </c>
       <c r="B161" t="n">
         <v>2</v>
       </c>
       <c r="C161" t="n">
-        <v>-0.6979793656980171</v>
+        <v>-554.1074096433164</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>lab_a_median</t>
+          <t>hsv_h_25</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C162" t="n">
-        <v>-0.6979793656980176</v>
+        <v>-555.9412550615382</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>yuv_u_variance</t>
+          <t>hsv_h_25</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C163" t="n">
-        <v>-0.7165669877820512</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>lab_b_75</t>
-        </is>
-      </c>
-      <c r="B164" t="n">
-        <v>2</v>
-      </c>
-      <c r="C164" t="n">
-        <v>-0.7247294683863574</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>yuv_u_mean</t>
-        </is>
-      </c>
-      <c r="B165" t="n">
-        <v>1</v>
-      </c>
-      <c r="C165" t="n">
-        <v>-0.7371339888473337</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>yuv_u_25</t>
-        </is>
-      </c>
-      <c r="B166" t="n">
-        <v>1</v>
-      </c>
-      <c r="C166" t="n">
-        <v>-0.742295397004116</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>yuv_u_mean</t>
-        </is>
-      </c>
-      <c r="B167" t="n">
-        <v>2</v>
-      </c>
-      <c r="C167" t="n">
-        <v>-0.7520621412118624</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>yuv_u_std_dev</t>
-        </is>
-      </c>
-      <c r="B168" t="n">
-        <v>1</v>
-      </c>
-      <c r="C168" t="n">
-        <v>-0.7880994153347125</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>yuv_v_median</t>
-        </is>
-      </c>
-      <c r="B169" t="n">
-        <v>1</v>
-      </c>
-      <c r="C169" t="n">
-        <v>-0.8127034586637606</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>yuv_v_median</t>
-        </is>
-      </c>
-      <c r="B170" t="n">
-        <v>2</v>
-      </c>
-      <c r="C170" t="n">
-        <v>-0.8143096042225343</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>yuv_v_median</t>
-        </is>
-      </c>
-      <c r="B171" t="n">
-        <v>3</v>
-      </c>
-      <c r="C171" t="n">
-        <v>-0.8173441790043718</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>yuv_v_75</t>
-        </is>
-      </c>
-      <c r="B172" t="n">
-        <v>2</v>
-      </c>
-      <c r="C172" t="n">
-        <v>-0.8451032461486928</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>lab_l_std_dev</t>
-        </is>
-      </c>
-      <c r="B173" t="n">
-        <v>3</v>
-      </c>
-      <c r="C173" t="n">
-        <v>-0.9246349370236505</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>yuv_u_mean</t>
-        </is>
-      </c>
-      <c r="B174" t="n">
-        <v>3</v>
-      </c>
-      <c r="C174" t="n">
-        <v>-0.9283866477294662</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>yuv_u_25</t>
-        </is>
-      </c>
-      <c r="B175" t="n">
-        <v>2</v>
-      </c>
-      <c r="C175" t="n">
-        <v>-0.9601637334385836</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>lab_b_mean</t>
-        </is>
-      </c>
-      <c r="B176" t="n">
-        <v>2</v>
-      </c>
-      <c r="C176" t="n">
-        <v>-0.9812654452906161</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>hsv_h_std_dev</t>
-        </is>
-      </c>
-      <c r="B177" t="n">
-        <v>2</v>
-      </c>
-      <c r="C177" t="n">
-        <v>-0.9907857091936524</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>xyz_z_std_dev</t>
-        </is>
-      </c>
-      <c r="B178" t="n">
-        <v>1</v>
-      </c>
-      <c r="C178" t="n">
-        <v>-1.004092650687907</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>yuv_u_variance</t>
-        </is>
-      </c>
-      <c r="B179" t="n">
-        <v>2</v>
-      </c>
-      <c r="C179" t="n">
-        <v>-1.056116478732124</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>lab_b_median</t>
-        </is>
-      </c>
-      <c r="B180" t="n">
-        <v>1</v>
-      </c>
-      <c r="C180" t="n">
-        <v>-1.087453227001521</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>lab_b_median</t>
-        </is>
-      </c>
-      <c r="B181" t="n">
-        <v>2</v>
-      </c>
-      <c r="C181" t="n">
-        <v>-1.102640474064283</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>lab_b_median</t>
-        </is>
-      </c>
-      <c r="B182" t="n">
-        <v>3</v>
-      </c>
-      <c r="C182" t="n">
-        <v>-1.124124260777304</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>yuv_u_std_dev</t>
-        </is>
-      </c>
-      <c r="B183" t="n">
-        <v>2</v>
-      </c>
-      <c r="C183" t="n">
-        <v>-1.163137946741589</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>yuv_u_variance</t>
-        </is>
-      </c>
-      <c r="B184" t="n">
-        <v>3</v>
-      </c>
-      <c r="C184" t="n">
-        <v>-1.220218061078842</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>yuv_u_std_dev</t>
-        </is>
-      </c>
-      <c r="B185" t="n">
-        <v>3</v>
-      </c>
-      <c r="C185" t="n">
-        <v>-1.264491129789778</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>yuv_u_25</t>
-        </is>
-      </c>
-      <c r="B186" t="n">
-        <v>3</v>
-      </c>
-      <c r="C186" t="n">
-        <v>-1.346893839124751</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>xyz_z_variance</t>
-        </is>
-      </c>
-      <c r="B187" t="n">
-        <v>1</v>
-      </c>
-      <c r="C187" t="n">
-        <v>-1.432833509175979</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>lab_b_mean</t>
-        </is>
-      </c>
-      <c r="B188" t="n">
-        <v>3</v>
-      </c>
-      <c r="C188" t="n">
-        <v>-1.546324596582422</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>yuv_v_std_dev</t>
-        </is>
-      </c>
-      <c r="B189" t="n">
-        <v>1</v>
-      </c>
-      <c r="C189" t="n">
-        <v>-1.573771096484662</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>yuv_v_75</t>
-        </is>
-      </c>
-      <c r="B190" t="n">
-        <v>3</v>
-      </c>
-      <c r="C190" t="n">
-        <v>-1.659095573236758</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>hsv_s_mean</t>
-        </is>
-      </c>
-      <c r="B191" t="n">
-        <v>1</v>
-      </c>
-      <c r="C191" t="n">
-        <v>-1.709743768655713</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>lab_l_variance</t>
-        </is>
-      </c>
-      <c r="B192" t="n">
-        <v>3</v>
-      </c>
-      <c r="C192" t="n">
-        <v>-1.758539621014265</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>hsv_h_variance</t>
-        </is>
-      </c>
-      <c r="B193" t="n">
-        <v>2</v>
-      </c>
-      <c r="C193" t="n">
-        <v>-1.904004236088803</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>lab_b_75</t>
-        </is>
-      </c>
-      <c r="B194" t="n">
-        <v>3</v>
-      </c>
-      <c r="C194" t="n">
-        <v>-1.998754065896934</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>hsv_s_median</t>
-        </is>
-      </c>
-      <c r="B195" t="n">
-        <v>1</v>
-      </c>
-      <c r="C195" t="n">
-        <v>-2.216743974491936</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>yuv_v_variance</t>
-        </is>
-      </c>
-      <c r="B196" t="n">
-        <v>1</v>
-      </c>
-      <c r="C196" t="n">
-        <v>-2.290955752741071</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>yuv_u_median</t>
-        </is>
-      </c>
-      <c r="B197" t="n">
-        <v>3</v>
-      </c>
-      <c r="C197" t="n">
-        <v>-2.387399919157965</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>yuv_u_median</t>
-        </is>
-      </c>
-      <c r="B198" t="n">
-        <v>2</v>
-      </c>
-      <c r="C198" t="n">
-        <v>-2.390465087664073</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>yuv_v_std_dev</t>
-        </is>
-      </c>
-      <c r="B199" t="n">
-        <v>2</v>
-      </c>
-      <c r="C199" t="n">
-        <v>-2.412325815630289</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>yuv_u_median</t>
-        </is>
-      </c>
-      <c r="B200" t="n">
-        <v>1</v>
-      </c>
-      <c r="C200" t="n">
-        <v>-2.413458993434436</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>lab_a_variance</t>
-        </is>
-      </c>
-      <c r="B201" t="n">
-        <v>3</v>
-      </c>
-      <c r="C201" t="n">
-        <v>-3.503813004129201</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>yuv_v_variance</t>
-        </is>
-      </c>
-      <c r="B202" t="n">
-        <v>2</v>
-      </c>
-      <c r="C202" t="n">
-        <v>-3.565892074680145</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>lab_a_mean</t>
-        </is>
-      </c>
-      <c r="B203" t="n">
-        <v>2</v>
-      </c>
-      <c r="C203" t="n">
-        <v>-3.588791699276262</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>lab_a_mean</t>
-        </is>
-      </c>
-      <c r="B204" t="n">
-        <v>1</v>
-      </c>
-      <c r="C204" t="n">
-        <v>-3.709391530343903</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>lab_a_mean</t>
-        </is>
-      </c>
-      <c r="B205" t="n">
-        <v>3</v>
-      </c>
-      <c r="C205" t="n">
-        <v>-5.184571952842935</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>hsv_h_std_dev</t>
-        </is>
-      </c>
-      <c r="B206" t="n">
-        <v>3</v>
-      </c>
-      <c r="C206" t="n">
-        <v>-9.103595394350789</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>yuv_v_std_dev</t>
-        </is>
-      </c>
-      <c r="B207" t="n">
-        <v>3</v>
-      </c>
-      <c r="C207" t="n">
-        <v>-9.246363000231998</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>yuv_v_variance</t>
-        </is>
-      </c>
-      <c r="B208" t="n">
-        <v>3</v>
-      </c>
-      <c r="C208" t="n">
-        <v>-16.21497747697716</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>hsv_h_variance</t>
-        </is>
-      </c>
-      <c r="B209" t="n">
-        <v>3</v>
-      </c>
-      <c r="C209" t="n">
-        <v>-23.4077906798052</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>xyz_z_std_dev</t>
-        </is>
-      </c>
-      <c r="B210" t="n">
-        <v>3</v>
-      </c>
-      <c r="C210" t="n">
-        <v>-30.64593449435166</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>xyz_z_variance</t>
-        </is>
-      </c>
-      <c r="B211" t="n">
-        <v>3</v>
-      </c>
-      <c r="C211" t="n">
-        <v>-67.32983309801224</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>hsv_h_mean</t>
-        </is>
-      </c>
-      <c r="B212" t="n">
-        <v>1</v>
-      </c>
-      <c r="C212" t="n">
-        <v>-417.7898574345159</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>hsv_h_mean</t>
-        </is>
-      </c>
-      <c r="B213" t="n">
-        <v>2</v>
-      </c>
-      <c r="C213" t="n">
-        <v>-423.4895970132023</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>hsv_h_mean</t>
-        </is>
-      </c>
-      <c r="B214" t="n">
-        <v>3</v>
-      </c>
-      <c r="C214" t="n">
-        <v>-455.2041517265824</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>hsv_h_25</t>
-        </is>
-      </c>
-      <c r="B215" t="n">
-        <v>2</v>
-      </c>
-      <c r="C215" t="n">
-        <v>-554.1074096433164</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>hsv_h_25</t>
-        </is>
-      </c>
-      <c r="B216" t="n">
-        <v>1</v>
-      </c>
-      <c r="C216" t="n">
-        <v>-555.9412550615382</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>hsv_h_25</t>
-        </is>
-      </c>
-      <c r="B217" t="n">
-        <v>3</v>
-      </c>
-      <c r="C217" t="n">
         <v>-913.7493012687088</v>
       </c>
     </row>

--- a/stage2_excels/GA/GA_kfold_one.xlsx
+++ b/stage2_excels/GA/GA_kfold_one.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="GA" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -460,7 +460,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8965129460024694</v>
+        <v>0.8965129460024734</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +473,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>0.868841794346728</v>
+        <v>0.8688417943499751</v>
       </c>
     </row>
     <row r="4">
@@ -486,7 +486,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8540524199248501</v>
+        <v>0.8540524199248527</v>
       </c>
     </row>
     <row r="5">
@@ -499,7 +499,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>0.84345381684946</v>
+        <v>0.8434538168494612</v>
       </c>
     </row>
     <row r="6">
@@ -512,7 +512,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8258859403017228</v>
+        <v>0.8258859403025838</v>
       </c>
     </row>
     <row r="7">
@@ -525,7 +525,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8217745342633938</v>
+        <v>0.8217745342621836</v>
       </c>
     </row>
     <row r="8">
@@ -538,7 +538,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8085982155768168</v>
+        <v>0.8085982155768235</v>
       </c>
     </row>
     <row r="9">
@@ -564,7 +564,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8010948201216774</v>
+        <v>0.8010948201216745</v>
       </c>
     </row>
     <row r="11">
@@ -590,7 +590,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>0.793806411591645</v>
+        <v>0.7938064115916489</v>
       </c>
     </row>
     <row r="13">
@@ -603,7 +603,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7861557737680936</v>
+        <v>0.7861557737680979</v>
       </c>
     </row>
     <row r="14">
@@ -616,7 +616,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7846602316774804</v>
+        <v>0.7846602316774783</v>
       </c>
     </row>
     <row r="15">
@@ -629,7 +629,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>0.78144648116596</v>
+        <v>0.7814464811659614</v>
       </c>
     </row>
     <row r="16">
@@ -642,7 +642,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7773625019906992</v>
+        <v>0.7773625019916125</v>
       </c>
     </row>
     <row r="17">
@@ -655,7 +655,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7720444077425198</v>
+        <v>0.7720444077425237</v>
       </c>
     </row>
     <row r="18">
@@ -668,7 +668,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7713205598900951</v>
+        <v>0.7713205598900925</v>
       </c>
     </row>
     <row r="19">
@@ -681,7 +681,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7681231758992679</v>
+        <v>0.768123175899269</v>
       </c>
     </row>
     <row r="20">
@@ -694,7 +694,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7651900605169126</v>
+        <v>0.7651900605169024</v>
       </c>
     </row>
     <row r="21">
@@ -707,7 +707,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7649487841972759</v>
+        <v>0.7649487841972687</v>
       </c>
     </row>
     <row r="22">
@@ -720,7 +720,7 @@
         <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7632760117773396</v>
+        <v>0.7632760117773316</v>
       </c>
     </row>
     <row r="23">
@@ -746,7 +746,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7565395596913899</v>
+        <v>0.7565395597062426</v>
       </c>
     </row>
     <row r="25">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7531754553133954</v>
+        <v>0.7531754553147705</v>
       </c>
     </row>
     <row r="26">
@@ -772,7 +772,7 @@
         <v>3</v>
       </c>
       <c r="C26" t="n">
-        <v>0.752854905711455</v>
+        <v>0.7528549057464262</v>
       </c>
     </row>
     <row r="27">
@@ -785,7 +785,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7454389982287395</v>
+        <v>0.7454389982287394</v>
       </c>
     </row>
     <row r="28">
@@ -798,7 +798,7 @@
         <v>3</v>
       </c>
       <c r="C28" t="n">
-        <v>0.7406288523679319</v>
+        <v>0.7406288523325453</v>
       </c>
     </row>
     <row r="29">
@@ -811,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>0.7388606327284217</v>
+        <v>0.7388606327284218</v>
       </c>
     </row>
     <row r="30">
@@ -824,7 +824,7 @@
         <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>0.7377816094790633</v>
+        <v>0.7377816094789983</v>
       </c>
     </row>
     <row r="31">
@@ -837,7 +837,7 @@
         <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>0.73535466970209</v>
+        <v>0.7353546697020937</v>
       </c>
     </row>
     <row r="32">
@@ -850,7 +850,7 @@
         <v>3</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7333307696131335</v>
+        <v>0.7333307696450847</v>
       </c>
     </row>
     <row r="33">
@@ -863,7 +863,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>0.7313794876839539</v>
+        <v>0.731379487683951</v>
       </c>
     </row>
     <row r="34">
@@ -876,7 +876,7 @@
         <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>0.7286287862541059</v>
+        <v>0.7286287862541058</v>
       </c>
     </row>
     <row r="35">
@@ -889,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>0.7270673790132136</v>
+        <v>0.7270673790132138</v>
       </c>
     </row>
     <row r="36">
@@ -902,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7268813454179227</v>
+        <v>0.7268813454179226</v>
       </c>
     </row>
     <row r="37">
@@ -915,7 +915,7 @@
         <v>3</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7226076959552787</v>
+        <v>0.7226076959260755</v>
       </c>
     </row>
     <row r="38">
@@ -928,7 +928,7 @@
         <v>3</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7225536320991607</v>
+        <v>0.7225536321364021</v>
       </c>
     </row>
     <row r="39">
@@ -941,7 +941,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>0.7223612946438317</v>
+        <v>0.7223612946321045</v>
       </c>
     </row>
     <row r="40">
@@ -954,7 +954,7 @@
         <v>3</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7147173342107573</v>
+        <v>0.7147173342169382</v>
       </c>
     </row>
     <row r="41">
@@ -980,7 +980,7 @@
         <v>3</v>
       </c>
       <c r="C42" t="n">
-        <v>0.7072642546632255</v>
+        <v>0.7072642546985178</v>
       </c>
     </row>
     <row r="43">
@@ -993,7 +993,7 @@
         <v>3</v>
       </c>
       <c r="C43" t="n">
-        <v>0.706886223220119</v>
+        <v>0.7068862232222328</v>
       </c>
     </row>
     <row r="44">
@@ -1006,7 +1006,7 @@
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>0.7054943157635758</v>
+        <v>0.705494315763576</v>
       </c>
     </row>
     <row r="45">
@@ -1019,7 +1019,7 @@
         <v>3</v>
       </c>
       <c r="C45" t="n">
-        <v>0.7036187342820804</v>
+        <v>0.7036187342166336</v>
       </c>
     </row>
     <row r="46">
@@ -1045,7 +1045,7 @@
         <v>3</v>
       </c>
       <c r="C47" t="n">
-        <v>0.7000822154801254</v>
+        <v>0.7000822154987596</v>
       </c>
     </row>
     <row r="48">
@@ -1058,7 +1058,7 @@
         <v>3</v>
       </c>
       <c r="C48" t="n">
-        <v>0.6947982351837761</v>
+        <v>0.6947982351259541</v>
       </c>
     </row>
     <row r="49">
@@ -1084,7 +1084,7 @@
         <v>3</v>
       </c>
       <c r="C50" t="n">
-        <v>0.6870868435477691</v>
+        <v>0.6870868435603885</v>
       </c>
     </row>
     <row r="51">
@@ -1097,7 +1097,7 @@
         <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>0.6789635900661686</v>
+        <v>0.6789635900661684</v>
       </c>
     </row>
     <row r="52">
@@ -1123,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>0.6755329718485767</v>
+        <v>0.675532971848577</v>
       </c>
     </row>
     <row r="54">
@@ -1149,7 +1149,7 @@
         <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>0.6701112958309566</v>
+        <v>0.6701112958309567</v>
       </c>
     </row>
     <row r="56">
@@ -1162,7 +1162,7 @@
         <v>2</v>
       </c>
       <c r="C56" t="n">
-        <v>0.6604459648094917</v>
+        <v>0.660445964809435</v>
       </c>
     </row>
     <row r="57">
@@ -1175,7 +1175,7 @@
         <v>2</v>
       </c>
       <c r="C57" t="n">
-        <v>0.6579194872352253</v>
+        <v>0.6579194872352295</v>
       </c>
     </row>
     <row r="58">
@@ -1188,7 +1188,7 @@
         <v>3</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6566188903725265</v>
+        <v>0.6566188903688374</v>
       </c>
     </row>
     <row r="59">
@@ -1214,7 +1214,7 @@
         <v>2</v>
       </c>
       <c r="C60" t="n">
-        <v>0.6390794977810368</v>
+        <v>0.639079497781141</v>
       </c>
     </row>
     <row r="61">
@@ -1227,7 +1227,7 @@
         <v>2</v>
       </c>
       <c r="C61" t="n">
-        <v>0.6353804883683882</v>
+        <v>0.6353804883683885</v>
       </c>
     </row>
     <row r="62">
@@ -1240,7 +1240,7 @@
         <v>3</v>
       </c>
       <c r="C62" t="n">
-        <v>0.6257291991709101</v>
+        <v>0.6257291982314688</v>
       </c>
     </row>
     <row r="63">
@@ -1253,7 +1253,7 @@
         <v>3</v>
       </c>
       <c r="C63" t="n">
-        <v>0.6222190481475046</v>
+        <v>0.6222190481465865</v>
       </c>
     </row>
     <row r="64">
@@ -1266,7 +1266,7 @@
         <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6073420010059505</v>
+        <v>0.6073420010059508</v>
       </c>
     </row>
     <row r="65">
@@ -1305,7 +1305,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>0.5411628655512641</v>
+        <v>0.541162865551264</v>
       </c>
     </row>
     <row r="68">
@@ -1318,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5160017702432624</v>
+        <v>0.5160017702432622</v>
       </c>
     </row>
     <row r="69">
@@ -1357,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>0.4699287719246151</v>
+        <v>0.469928771924615</v>
       </c>
     </row>
     <row r="72">
@@ -1370,7 +1370,7 @@
         <v>2</v>
       </c>
       <c r="C72" t="n">
-        <v>0.4657270339668063</v>
+        <v>0.4657270339668699</v>
       </c>
     </row>
     <row r="73">
@@ -1383,7 +1383,7 @@
         <v>3</v>
       </c>
       <c r="C73" t="n">
-        <v>0.4639676383930275</v>
+        <v>0.4639676383749839</v>
       </c>
     </row>
     <row r="74">
@@ -1396,7 +1396,7 @@
         <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>0.4629923532694023</v>
+        <v>0.462992353269402</v>
       </c>
     </row>
     <row r="75">
@@ -1409,7 +1409,7 @@
         <v>3</v>
       </c>
       <c r="C75" t="n">
-        <v>0.4600142651329546</v>
+        <v>0.4600142599470937</v>
       </c>
     </row>
     <row r="76">
@@ -1422,7 +1422,7 @@
         <v>3</v>
       </c>
       <c r="C76" t="n">
-        <v>0.4387051060974401</v>
+        <v>0.4387051060968555</v>
       </c>
     </row>
     <row r="77">
@@ -1448,7 +1448,7 @@
         <v>2</v>
       </c>
       <c r="C78" t="n">
-        <v>0.4215947640234051</v>
+        <v>0.4215947640234196</v>
       </c>
     </row>
     <row r="79">
@@ -1461,7 +1461,7 @@
         <v>3</v>
       </c>
       <c r="C79" t="n">
-        <v>0.414446174649094</v>
+        <v>0.4144461746111177</v>
       </c>
     </row>
     <row r="80">
@@ -1474,7 +1474,7 @@
         <v>2</v>
       </c>
       <c r="C80" t="n">
-        <v>0.4084220196746088</v>
+        <v>0.4084220196743121</v>
       </c>
     </row>
     <row r="81">
@@ -1487,7 +1487,7 @@
         <v>2</v>
       </c>
       <c r="C81" t="n">
-        <v>0.3966255512482969</v>
+        <v>0.3966255512483142</v>
       </c>
     </row>
     <row r="82">
@@ -1500,7 +1500,7 @@
         <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>0.3959597020687437</v>
+        <v>0.3959597020687434</v>
       </c>
     </row>
     <row r="83">
@@ -1513,7 +1513,7 @@
         <v>2</v>
       </c>
       <c r="C83" t="n">
-        <v>0.3902911179073624</v>
+        <v>0.3902911179065475</v>
       </c>
     </row>
     <row r="84">
@@ -1526,7 +1526,7 @@
         <v>3</v>
       </c>
       <c r="C84" t="n">
-        <v>0.3831125349235437</v>
+        <v>0.3831125334322388</v>
       </c>
     </row>
     <row r="85">
@@ -1539,7 +1539,7 @@
         <v>3</v>
       </c>
       <c r="C85" t="n">
-        <v>0.3536991097668701</v>
+        <v>0.3536991097678674</v>
       </c>
     </row>
     <row r="86">
@@ -1552,7 +1552,7 @@
         <v>2</v>
       </c>
       <c r="C86" t="n">
-        <v>0.3536582120745278</v>
+        <v>0.3536582120745283</v>
       </c>
     </row>
     <row r="87">
@@ -1565,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="C87" t="n">
-        <v>0.3461334983368994</v>
+        <v>0.3461334984393752</v>
       </c>
     </row>
     <row r="88">
@@ -1578,7 +1578,7 @@
         <v>3</v>
       </c>
       <c r="C88" t="n">
-        <v>0.3363056288905365</v>
+        <v>0.3363056290084411</v>
       </c>
     </row>
     <row r="89">
@@ -1591,7 +1591,7 @@
         <v>2</v>
       </c>
       <c r="C89" t="n">
-        <v>0.3347368726198968</v>
+        <v>0.3347368726199222</v>
       </c>
     </row>
     <row r="90">
@@ -1604,7 +1604,7 @@
         <v>3</v>
       </c>
       <c r="C90" t="n">
-        <v>0.3179782018092669</v>
+        <v>0.3179782018076324</v>
       </c>
     </row>
     <row r="91">
@@ -1617,7 +1617,7 @@
         <v>2</v>
       </c>
       <c r="C91" t="n">
-        <v>0.3156093815393715</v>
+        <v>0.3156093815393509</v>
       </c>
     </row>
     <row r="92">
@@ -1630,7 +1630,7 @@
         <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>0.2738435813333039</v>
+        <v>0.2738435813333043</v>
       </c>
     </row>
     <row r="93">
@@ -1643,7 +1643,7 @@
         <v>2</v>
       </c>
       <c r="C93" t="n">
-        <v>0.258628304285694</v>
+        <v>0.2586283042867152</v>
       </c>
     </row>
     <row r="94">
@@ -1656,7 +1656,7 @@
         <v>2</v>
       </c>
       <c r="C94" t="n">
-        <v>0.2581622530410829</v>
+        <v>0.2581622530426836</v>
       </c>
     </row>
     <row r="95">
@@ -1669,7 +1669,7 @@
         <v>3</v>
       </c>
       <c r="C95" t="n">
-        <v>0.2420189804232264</v>
+        <v>0.2420189803314301</v>
       </c>
     </row>
     <row r="96">
@@ -1682,7 +1682,7 @@
         <v>2</v>
       </c>
       <c r="C96" t="n">
-        <v>0.2351804627504773</v>
+        <v>0.2351804627510031</v>
       </c>
     </row>
     <row r="97">
@@ -1695,7 +1695,7 @@
         <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>0.2186818515616958</v>
+        <v>0.2186818515616953</v>
       </c>
     </row>
     <row r="98">
@@ -1708,7 +1708,7 @@
         <v>2</v>
       </c>
       <c r="C98" t="n">
-        <v>0.2153818007742213</v>
+        <v>0.2153818007742962</v>
       </c>
     </row>
     <row r="99">
@@ -1721,7 +1721,7 @@
         <v>3</v>
       </c>
       <c r="C99" t="n">
-        <v>0.2115653159232798</v>
+        <v>0.2115653159291389</v>
       </c>
     </row>
     <row r="100">
@@ -1734,7 +1734,7 @@
         <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>0.1313900319499294</v>
+        <v>0.1313900319499303</v>
       </c>
     </row>
     <row r="101">
@@ -1747,7 +1747,7 @@
         <v>2</v>
       </c>
       <c r="C101" t="n">
-        <v>0.07128646040416782</v>
+        <v>0.07128646040360224</v>
       </c>
     </row>
     <row r="102">
@@ -1760,7 +1760,7 @@
         <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.03852810801281037</v>
+        <v>-0.03852810801281011</v>
       </c>
     </row>
     <row r="103">
@@ -1773,7 +1773,7 @@
         <v>2</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.1107993592411031</v>
+        <v>-0.1107993592411047</v>
       </c>
     </row>
     <row r="104">
@@ -1786,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.1358505032864311</v>
+        <v>-0.1358505032864107</v>
       </c>
     </row>
     <row r="105">
@@ -1799,7 +1799,7 @@
         <v>3</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.1792760629029758</v>
+        <v>-0.1792760632679208</v>
       </c>
     </row>
     <row r="106">
@@ -1812,7 +1812,7 @@
         <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.2183187299871356</v>
+        <v>-0.218318729987136</v>
       </c>
     </row>
     <row r="107">
@@ -1825,7 +1825,7 @@
         <v>2</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.26511024806112</v>
+        <v>-0.2651102480611137</v>
       </c>
     </row>
     <row r="108">
@@ -1838,7 +1838,7 @@
         <v>3</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.2809801502807935</v>
+        <v>-0.2809801502812948</v>
       </c>
     </row>
     <row r="109">
@@ -1851,7 +1851,7 @@
         <v>2</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.311933299268445</v>
+        <v>-0.3119332992701251</v>
       </c>
     </row>
     <row r="110">
@@ -1942,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>-0.3183516587318844</v>
+        <v>-0.3183516587318841</v>
       </c>
     </row>
     <row r="117">
@@ -1955,7 +1955,7 @@
         <v>3</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.3205071047192035</v>
+        <v>-0.3205071047185887</v>
       </c>
     </row>
     <row r="118">
@@ -1968,7 +1968,7 @@
         <v>3</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.3318215247708073</v>
+        <v>-0.3318215156209919</v>
       </c>
     </row>
     <row r="119">
@@ -2007,7 +2007,7 @@
         <v>1</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.6572631212831486</v>
+        <v>-0.657263121283148</v>
       </c>
     </row>
     <row r="122">
@@ -2033,7 +2033,7 @@
         <v>1</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.7371339888473337</v>
+        <v>-0.7371339888473334</v>
       </c>
     </row>
     <row r="124">
@@ -2046,7 +2046,7 @@
         <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>-0.742295397004116</v>
+        <v>-0.7422953970041155</v>
       </c>
     </row>
     <row r="125">
@@ -2059,7 +2059,7 @@
         <v>2</v>
       </c>
       <c r="C125" t="n">
-        <v>-0.7520621412118624</v>
+        <v>-0.7520621412127828</v>
       </c>
     </row>
     <row r="126">
@@ -2072,7 +2072,7 @@
         <v>1</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.7880994153347125</v>
+        <v>-0.7880994153347129</v>
       </c>
     </row>
     <row r="127">
@@ -2085,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.8127034586637606</v>
+        <v>-0.8127034586637597</v>
       </c>
     </row>
     <row r="128">
@@ -2098,7 +2098,7 @@
         <v>2</v>
       </c>
       <c r="C128" t="n">
-        <v>-0.8143096042225343</v>
+        <v>-0.8143096042226265</v>
       </c>
     </row>
     <row r="129">
@@ -2111,7 +2111,7 @@
         <v>3</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.8173441790043718</v>
+        <v>-0.8173441790043663</v>
       </c>
     </row>
     <row r="130">
@@ -2124,7 +2124,7 @@
         <v>2</v>
       </c>
       <c r="C130" t="n">
-        <v>-0.8451032461486928</v>
+        <v>-0.8451032461498655</v>
       </c>
     </row>
     <row r="131">
@@ -2137,7 +2137,7 @@
         <v>3</v>
       </c>
       <c r="C131" t="n">
-        <v>-0.9283866477294662</v>
+        <v>-0.9283866554199195</v>
       </c>
     </row>
     <row r="132">
@@ -2150,7 +2150,7 @@
         <v>2</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.9601637334385836</v>
+        <v>-0.9601637334390298</v>
       </c>
     </row>
     <row r="133">
@@ -2163,7 +2163,7 @@
         <v>2</v>
       </c>
       <c r="C133" t="n">
-        <v>-0.9907857091936524</v>
+        <v>-0.9907857091936396</v>
       </c>
     </row>
     <row r="134">
@@ -2176,7 +2176,7 @@
         <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>-1.004092650687907</v>
+        <v>-1.00409265068791</v>
       </c>
     </row>
     <row r="135">
@@ -2189,7 +2189,7 @@
         <v>2</v>
       </c>
       <c r="C135" t="n">
-        <v>-1.056116478732124</v>
+        <v>-1.056116478732174</v>
       </c>
     </row>
     <row r="136">
@@ -2202,7 +2202,7 @@
         <v>2</v>
       </c>
       <c r="C136" t="n">
-        <v>-1.163137946741589</v>
+        <v>-1.163137946741592</v>
       </c>
     </row>
     <row r="137">
@@ -2215,7 +2215,7 @@
         <v>3</v>
       </c>
       <c r="C137" t="n">
-        <v>-1.220218061078842</v>
+        <v>-1.2202180610685</v>
       </c>
     </row>
     <row r="138">
@@ -2228,7 +2228,7 @@
         <v>3</v>
       </c>
       <c r="C138" t="n">
-        <v>-1.264491129789778</v>
+        <v>-1.2644911297896</v>
       </c>
     </row>
     <row r="139">
@@ -2241,7 +2241,7 @@
         <v>3</v>
       </c>
       <c r="C139" t="n">
-        <v>-1.346893839124751</v>
+        <v>-1.346893836956249</v>
       </c>
     </row>
     <row r="140">
@@ -2280,7 +2280,7 @@
         <v>3</v>
       </c>
       <c r="C142" t="n">
-        <v>-1.659095573236758</v>
+        <v>-1.659095625111779</v>
       </c>
     </row>
     <row r="143">
@@ -2306,7 +2306,7 @@
         <v>2</v>
       </c>
       <c r="C144" t="n">
-        <v>-1.904004236088803</v>
+        <v>-1.904004236088779</v>
       </c>
     </row>
     <row r="145">
@@ -2319,7 +2319,7 @@
         <v>1</v>
       </c>
       <c r="C145" t="n">
-        <v>-2.216743974491936</v>
+        <v>-2.216743974491938</v>
       </c>
     </row>
     <row r="146">
@@ -2345,7 +2345,7 @@
         <v>3</v>
       </c>
       <c r="C147" t="n">
-        <v>-2.387399919157965</v>
+        <v>-2.387399919158137</v>
       </c>
     </row>
     <row r="148">
@@ -2358,7 +2358,7 @@
         <v>2</v>
       </c>
       <c r="C148" t="n">
-        <v>-2.390465087664073</v>
+        <v>-2.390465087663324</v>
       </c>
     </row>
     <row r="149">
@@ -2371,7 +2371,7 @@
         <v>2</v>
       </c>
       <c r="C149" t="n">
-        <v>-2.412325815630289</v>
+        <v>-2.412325815630294</v>
       </c>
     </row>
     <row r="150">
@@ -2397,7 +2397,7 @@
         <v>2</v>
       </c>
       <c r="C151" t="n">
-        <v>-3.565892074680145</v>
+        <v>-3.565892074680128</v>
       </c>
     </row>
     <row r="152">
@@ -2410,7 +2410,7 @@
         <v>3</v>
       </c>
       <c r="C152" t="n">
-        <v>-9.103595394350789</v>
+        <v>-9.103595394353754</v>
       </c>
     </row>
     <row r="153">
@@ -2423,7 +2423,7 @@
         <v>3</v>
       </c>
       <c r="C153" t="n">
-        <v>-9.246363000231998</v>
+        <v>-9.246363000232824</v>
       </c>
     </row>
     <row r="154">
@@ -2436,7 +2436,7 @@
         <v>3</v>
       </c>
       <c r="C154" t="n">
-        <v>-16.21497747697716</v>
+        <v>-16.21497747775445</v>
       </c>
     </row>
     <row r="155">
@@ -2449,7 +2449,7 @@
         <v>3</v>
       </c>
       <c r="C155" t="n">
-        <v>-23.4077906798052</v>
+        <v>-23.40779067956133</v>
       </c>
     </row>
     <row r="156">
@@ -2462,7 +2462,7 @@
         <v>3</v>
       </c>
       <c r="C156" t="n">
-        <v>-30.64593449435166</v>
+        <v>-30.64593449738434</v>
       </c>
     </row>
     <row r="157">
@@ -2475,7 +2475,7 @@
         <v>3</v>
       </c>
       <c r="C157" t="n">
-        <v>-67.32983309801224</v>
+        <v>-67.32983765999602</v>
       </c>
     </row>
     <row r="158">
@@ -2488,7 +2488,7 @@
         <v>1</v>
       </c>
       <c r="C158" t="n">
-        <v>-417.7898574345159</v>
+        <v>-417.7898574345165</v>
       </c>
     </row>
     <row r="159">
@@ -2501,7 +2501,7 @@
         <v>2</v>
       </c>
       <c r="C159" t="n">
-        <v>-423.4895970132023</v>
+        <v>-423.4895970132026</v>
       </c>
     </row>
     <row r="160">
@@ -2514,7 +2514,7 @@
         <v>3</v>
       </c>
       <c r="C160" t="n">
-        <v>-455.2041517265824</v>
+        <v>-455.2041517265033</v>
       </c>
     </row>
     <row r="161">
@@ -2527,7 +2527,7 @@
         <v>2</v>
       </c>
       <c r="C161" t="n">
-        <v>-554.1074096433164</v>
+        <v>-554.1074096433155</v>
       </c>
     </row>
     <row r="162">
@@ -2553,10 +2553,10 @@
         <v>3</v>
       </c>
       <c r="C163" t="n">
-        <v>-913.7493012687088</v>
+        <v>-913.7493012687889</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>